--- a/DormManage.Web/FileTemplate/宿舍信息导入模板.xlsx
+++ b/DormManage.Web/FileTemplate/宿舍信息导入模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -30,7 +30,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Author:Eric</t>
+          <t>Author:Johnsing he</t>
         </r>
         <r>
           <rPr>
@@ -52,97 +52,39 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>、</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">DL
+IDL(G25)
+IDL(G26)
+IDL(G6~G22)
+出差房（G25）
+出差房（G26）
+家庭房
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>DL
-2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>、</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>IDL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">管理级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>、</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>IDL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>非管理级
-4、空调房
-5、客房</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+男 or
+女</t>
         </r>
       </text>
     </comment>
@@ -176,30 +118,12 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">、空闲
+          <t xml:space="preserve">空闲
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
         </r>
         <r>
           <rPr>
@@ -209,17 +133,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">、已入住
+          <t xml:space="preserve">已入住
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
         </r>
         <r>
           <rPr>
@@ -229,7 +144,31 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>、已分配未入住</t>
+          <t>已分配未入住</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+不确认的话，填1</t>
         </r>
       </text>
     </comment>
@@ -268,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,13 +243,39 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,8 +290,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,6 +386,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,6 +438,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,31 +634,34 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">

--- a/DormManage.Web/FileTemplate/宿舍信息导入模板.xlsx
+++ b/DormManage.Web/FileTemplate/宿舍信息导入模板.xlsx
@@ -53,12 +53,10 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">DL
-IDL(G25)
-IDL(G26)
-IDL(G6~G22)
-出差房（G25）
-出差房（G26）
+IDL
 家庭房
+出差房
+经理房
 </t>
         </r>
       </text>
@@ -642,7 +640,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +662,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DormManage.Web/FileTemplate/宿舍信息导入模板.xlsx
+++ b/DormManage.Web/FileTemplate/宿舍信息导入模板.xlsx
@@ -81,8 +81,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-男 or
-女</t>
+男
+女
+不限</t>
         </r>
       </text>
     </comment>
@@ -632,7 +633,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
